--- a/biology/Zoologie/Byrrhus/Byrrhus.xlsx
+++ b/biology/Zoologie/Byrrhus/Byrrhus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Byrrhus est un genre d'insectes coléoptères de la famille des Byrrhidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des sous-genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (30 mai 2023)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (30 mai 2023) :
 Byrrhus (Aeneobyrrhus) Putz, 1998
 Byrrhus (Asiatobyrrhus) Paulus, 1971
 Byrrhus (Byrrhininus) Pic, 1922
@@ -548,9 +562,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (30 mai 2023)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (30 mai 2023) :
 Byrrhus alpinus Gory, 1829
 Byrrhus americanus LeConte, 1850
 Byrrhus auromicans Kiesenwetter, 1851
@@ -610,10 +626,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Byrrhus Linnaeus, 1767[2].
-Byrrhus a pour synonymes[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Byrrhus Linnaeus, 1767.
+Byrrhus a pour synonymes :
 Aeneobyrrhus Putz, 1998
 Asiatobyrrhus Paulus, 1971
 Byrrhocaulus Fairmaire, 1901
